--- a/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx
@@ -399,7 +399,7 @@
     <t>Output:</t>
   </si>
   <si>
-    <t>C:\Users\radhakrishnang2\Desktop\DataCommons_Automation\ICDC_Automation\OutputFiles\TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx</t>
+    <t>C:\Users\radhakrishnang2\Desktop\Commons_Automation\OutputFiles\TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>

--- a/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="139">
   <si>
     <t>Case ID</t>
   </si>
@@ -409,6 +409,30 @@
   </si>
   <si>
     <t>Cypher query should not be an empty string</t>
+  </si>
+  <si>
+    <t>number_of_files</t>
+  </si>
+  <si>
+    <t>number_of_sample</t>
+  </si>
+  <si>
+    <t>number_of_cases</t>
+  </si>
+  <si>
+    <t>number_of_study</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE diag.disease_term IN['Stage 4']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1882,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1868,13 +1892,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1935,57 +1986,57 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">

--- a/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="139">
   <si>
     <t>Case ID</t>
   </si>
@@ -1898,20 +1898,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="s">
         <v>135</v>
@@ -1991,57 +1978,57 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_Neo4jData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="141">
   <si>
     <t>Case ID</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE diag.disease_term IN['Stage 4']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE demo.sex IN ['Castrated male']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1904,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
         <v>135</v>
@@ -1907,7 +1926,7 @@
         <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>137</v>
@@ -1978,52 +1997,52 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
